--- a/SimpleMathLibrary_Documentation.xlsx
+++ b/SimpleMathLibrary_Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="90" windowWidth="25440" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="90" windowWidth="25440" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Project:</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>BlicLikeCommentingSystem</t>
-  </si>
-  <si>
-    <t>BlicLikeCommentingSystem_Requirements</t>
   </si>
   <si>
     <t>Miloš Vulikić</t>
@@ -209,6 +203,18 @@
   </si>
   <si>
     <t>v1.2.0</t>
+  </si>
+  <si>
+    <t>SimpleLibrary</t>
+  </si>
+  <si>
+    <t>SimpleLibrary_documentation</t>
+  </si>
+  <si>
+    <t>14/11/2017</t>
+  </si>
+  <si>
+    <t>20/11/2015</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -533,9 +539,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,44 +595,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -664,8 +667,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A2:E18" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:E18"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="0"/>
-    <tableColumn id="2" name="Requirement" dataDxfId="1"/>
+    <tableColumn id="1" name="No." dataDxfId="1"/>
+    <tableColumn id="2" name="Requirement" dataDxfId="0"/>
     <tableColumn id="3" name="Description"/>
     <tableColumn id="4" name="Priority"/>
     <tableColumn id="5" name="Acceptance"/>
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F28"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,149 +980,150 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:6">
+      <c r="B8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="21">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="16" spans="2:6">
-      <c r="B16" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="32" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B21" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11">
-        <v>42158</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13">
-        <v>42168</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>42158</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B27" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B28" s="30" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-    </row>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="2:5" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C28:E28"/>
+  <mergeCells count="3">
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1130,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,411 +1148,411 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="44">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45">
+      <c r="A4" s="38">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
+      <c r="B4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44">
+      <c r="A5" s="37">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="44">
-        <f t="shared" ref="A7:A18" si="0">A6+1</f>
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="45">
+      <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>33</v>
+      <c r="B8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="44">
+      <c r="A9" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="45">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="44">
+      <c r="A11" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="45">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="44">
+      <c r="A13" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="45">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="44">
+      <c r="A15" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="45">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>47</v>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="44">
+      <c r="A17" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" s="21"/>
+      <c r="B45" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
